--- a/OpenCSTL.xlsx
+++ b/OpenCSTL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spring\Documents\git\springkim\OpenCSTL\OpenCSTL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spring\Documents\git\springkim\OpenCSTL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3606E11-D1F1-457B-B112-D0DACF0FAE7B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C00F4-0C3D-45FD-BDCC-41C02BD16AAC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10605" xr2:uid="{619C67F7-00F0-4C46-A399-483E9C62B008}"/>
   </bookViews>
@@ -381,11 +381,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +704,7 @@
   <dimension ref="A4:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,16 +887,16 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
@@ -992,8 +992,7 @@
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -1081,10 +1080,10 @@
       <c r="H25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="7" t="s">
         <v>29</v>
       </c>
     </row>
